--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>758054.7261261942</v>
+        <v>720558.0811115926</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11362143.45310926</v>
+        <v>11672620.63342789</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6226372.310333779</v>
+        <v>5820847.29216062</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9553062.007491179</v>
+        <v>9706494.474469392</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>210.7538259610248</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>185.3240552079433</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>1.735183282952164</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>98.33291139503753</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>195.0194028815133</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>165.0140383262352</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>108.7356304393084</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>232.7707233294517</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>209.1890489800798</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>74.52922194059501</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>165.0140383262353</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>199.7354794673606</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>84.8198124613405</v>
       </c>
       <c r="E8" t="n">
-        <v>162.1265216662858</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394024</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>12.34453374551297</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>43.30112502764958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>179.6825192794035</v>
+        <v>85.40855736262264</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247055</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.83156789269627</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705016</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>72.8983981635636</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.49027883092671</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>213.9187696850673</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>294.4710505471709</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705013</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.41670903610054</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.781160222249666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>5.246717585355508</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>282.8405564067464</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.223267762591943</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>15.42192132791991</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>121.0389903687767</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>84.69473660442819</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>204.8429981867602</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>103.6450161510108</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>117.4640413620756</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2377,13 +2377,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>6.380068175847845</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>85.65576091831582</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>17.35112070699554</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>361.3693442271762</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>91.38378273163971</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>11.16818915334145</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>16.34825474388511</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>341.0298525897898</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>77.31354443380498</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>79.4921923050191</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>11.26664236073971</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>142.0975176632392</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>129.8723895268712</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>191.2032661234058</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>175.2420117460532</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>168.1158122680972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>5.348319023254057</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>145.2481701217134</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>162.6159201417017</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0.2668480797626705</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>58.92805047992017</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>78.47556194058129</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>98.71188155670777</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>142.6955872305736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>36.06002841357861</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>204.5947623500356</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>83.74153757437986</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>90.41948680756566</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1819.431341154229</v>
+        <v>1992.890010021406</v>
       </c>
       <c r="C2" t="n">
-        <v>1450.468824213817</v>
+        <v>1623.927493080995</v>
       </c>
       <c r="D2" t="n">
-        <v>1092.203125607067</v>
+        <v>1265.661794474244</v>
       </c>
       <c r="E2" t="n">
-        <v>879.3204731211831</v>
+        <v>879.8735418759998</v>
       </c>
       <c r="F2" t="n">
-        <v>468.3345683315756</v>
+        <v>468.8876370863923</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>239.8866855817394</v>
+        <v>240.4397543365561</v>
       </c>
       <c r="K2" t="n">
-        <v>643.3537986017849</v>
+        <v>643.9068673566015</v>
       </c>
       <c r="L2" t="n">
-        <v>782.6824544430381</v>
+        <v>987.3069285423234</v>
       </c>
       <c r="M2" t="n">
-        <v>969.3818672684457</v>
+        <v>1174.006341367731</v>
       </c>
       <c r="N2" t="n">
-        <v>1596.689535328292</v>
+        <v>1368.340554259713</v>
       </c>
       <c r="O2" t="n">
-        <v>2143.850740095369</v>
+        <v>1915.501759026791</v>
       </c>
       <c r="P2" t="n">
-        <v>2527.35520837856</v>
+        <v>2344.816805366085</v>
       </c>
       <c r="Q2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2433.777728637814</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2433.777728637814</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2180.086025382965</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1992.890010021406</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1992.890010021406</v>
       </c>
       <c r="X2" t="n">
-        <v>2209.570673130041</v>
+        <v>1992.890010021406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.431341154229</v>
+        <v>1992.890010021406</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.6684709946088</v>
+        <v>921.0693931265623</v>
       </c>
       <c r="C3" t="n">
-        <v>790.2154417134818</v>
+        <v>746.6163638454353</v>
       </c>
       <c r="D3" t="n">
-        <v>641.2810320522306</v>
+        <v>597.6819541841841</v>
       </c>
       <c r="E3" t="n">
-        <v>482.0435770467751</v>
+        <v>438.4444991787286</v>
       </c>
       <c r="F3" t="n">
-        <v>335.5090190736601</v>
+        <v>291.9099412056136</v>
       </c>
       <c r="G3" t="n">
-        <v>198.067621432882</v>
+        <v>154.4685435648355</v>
       </c>
       <c r="H3" t="n">
-        <v>97.15164357768661</v>
+        <v>53.55256570964009</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="K3" t="n">
-        <v>380.675190873813</v>
+        <v>381.2282596286296</v>
       </c>
       <c r="L3" t="n">
-        <v>885.0367307399315</v>
+        <v>885.5897994947481</v>
       </c>
       <c r="M3" t="n">
-        <v>1519.21571451897</v>
+        <v>1526.135148961853</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.14579119009</v>
+        <v>1724.791890614518</v>
       </c>
       <c r="O3" t="n">
-        <v>1907.658103858851</v>
+        <v>1935.311541599682</v>
       </c>
       <c r="P3" t="n">
-        <v>2331.625872339687</v>
+        <v>2359.279310080518</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2568.880866543173</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.013155273854</v>
+        <v>2419.414077405808</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.023859433942</v>
+        <v>2222.424781565896</v>
       </c>
       <c r="U3" t="n">
-        <v>2037.885071945108</v>
+        <v>1994.285994077061</v>
       </c>
       <c r="V3" t="n">
-        <v>1802.732963713365</v>
+        <v>1759.133885845319</v>
       </c>
       <c r="W3" t="n">
-        <v>1548.495606985163</v>
+        <v>1504.896529117117</v>
       </c>
       <c r="X3" t="n">
-        <v>1340.644106779631</v>
+        <v>1297.045028911584</v>
       </c>
       <c r="Y3" t="n">
-        <v>1132.883808014677</v>
+        <v>1089.28473014663</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.9064539128624</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>369.9702709849554</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>219.8536315726197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>219.8536315726197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>219.8536315726197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="K4" t="n">
-        <v>152.2947161636129</v>
+        <v>152.8477849184295</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1277110644313</v>
+        <v>337.680779819248</v>
       </c>
       <c r="M4" t="n">
-        <v>542.3973117836692</v>
+        <v>542.9503805384859</v>
       </c>
       <c r="N4" t="n">
-        <v>748.2206766197735</v>
+        <v>748.7737453745901</v>
       </c>
       <c r="O4" t="n">
-        <v>922.3155720083723</v>
+        <v>922.868640763189</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.763148606988</v>
+        <v>1048.316217361805</v>
       </c>
       <c r="Q4" t="n">
-        <v>1051.181468027348</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="R4" t="n">
-        <v>1051.181468027348</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="S4" t="n">
-        <v>1051.181468027348</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="T4" t="n">
-        <v>1051.181468027348</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="U4" t="n">
-        <v>1051.181468027348</v>
+        <v>762.5823603598442</v>
       </c>
       <c r="V4" t="n">
-        <v>1051.181468027348</v>
+        <v>507.8978721539573</v>
       </c>
       <c r="W4" t="n">
-        <v>1051.181468027348</v>
+        <v>218.4807021169967</v>
       </c>
       <c r="X4" t="n">
-        <v>941.3474978866323</v>
+        <v>218.4807021169967</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.5549187431021</v>
+        <v>218.4807021169967</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1041.119498863681</v>
+        <v>1248.200538360964</v>
       </c>
       <c r="C5" t="n">
-        <v>672.1569819232693</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="D5" t="n">
-        <v>672.1569819232693</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="E5" t="n">
-        <v>286.3687293250251</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="F5" t="n">
-        <v>51.2467865680031</v>
+        <v>468.2521166309451</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K5" t="n">
-        <v>643.3537986017849</v>
+        <v>776.0043429178222</v>
       </c>
       <c r="L5" t="n">
-        <v>782.6824544430381</v>
+        <v>1013.627124136012</v>
       </c>
       <c r="M5" t="n">
-        <v>1146.3529036269</v>
+        <v>1309.697690693613</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518882</v>
+        <v>1615.172796929196</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>1890.289016245829</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625254</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400155</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164694</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U5" t="n">
-        <v>2191.324429164694</v>
+        <v>2024.939710400898</v>
       </c>
       <c r="V5" t="n">
-        <v>2191.324429164694</v>
+        <v>2024.939710400898</v>
       </c>
       <c r="W5" t="n">
-        <v>2191.324429164694</v>
+        <v>2024.939710400898</v>
       </c>
       <c r="X5" t="n">
-        <v>1817.858670903614</v>
+        <v>2024.939710400898</v>
       </c>
       <c r="Y5" t="n">
-        <v>1427.719338927803</v>
+        <v>1634.800378425086</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857312</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046042</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433529</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378974</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>51.2467865680031</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K6" t="n">
-        <v>380.675190873813</v>
+        <v>460.3590590626809</v>
       </c>
       <c r="L6" t="n">
-        <v>885.0367307399315</v>
+        <v>669.9499323155105</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.565353453463</v>
+        <v>933.8894638109966</v>
       </c>
       <c r="N6" t="n">
-        <v>1358.222095106128</v>
+        <v>1219.223334244328</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>1847.951982079748</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802342</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664977</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104488</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376286</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170753</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405799</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K7" t="n">
-        <v>152.2947161636129</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1277110644313</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M7" t="n">
-        <v>542.3973117836692</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N7" t="n">
-        <v>748.2206766197735</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O7" t="n">
-        <v>922.3155720083723</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P7" t="n">
-        <v>1047.763148606988</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q7" t="n">
-        <v>1051.181468027348</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T7" t="n">
-        <v>884.5006212331707</v>
+        <v>1086.791150136556</v>
       </c>
       <c r="U7" t="n">
-        <v>595.3484448108505</v>
+        <v>797.6545231286577</v>
       </c>
       <c r="V7" t="n">
-        <v>340.6639566049637</v>
+        <v>542.9700349227709</v>
       </c>
       <c r="W7" t="n">
-        <v>51.2467865680031</v>
+        <v>253.5528648858103</v>
       </c>
       <c r="X7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="C8" t="n">
-        <v>1412.134398099142</v>
+        <v>1303.565593677823</v>
       </c>
       <c r="D8" t="n">
-        <v>1412.134398099142</v>
+        <v>1217.889015434045</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>832.1007628358004</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135513</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139075</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163263</v>
+        <v>1672.528110618235</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.038517360655</v>
+        <v>1240.281905962038</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.323645957601</v>
+        <v>1630.69146728778</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1965.620148003312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2237.235965858065</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>64.26908132838838</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>64.26908132838838</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>64.26908132838838</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>64.26908132838838</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>64.26908132838838</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>64.26908132838838</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225446</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317425</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.6026718971</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1544.862307910905</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1348.412641916874</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1125.478067458855</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.86271359008</v>
+        <v>836.3602904692532</v>
       </c>
       <c r="V10" t="n">
-        <v>1533.86271359008</v>
+        <v>581.6758022633663</v>
       </c>
       <c r="W10" t="n">
-        <v>1533.86271359008</v>
+        <v>292.2586322264057</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.124203461141</v>
+        <v>64.26908132838838</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>64.26908132838838</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1412.134398099141</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C11" t="n">
-        <v>1043.171881158729</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D11" t="n">
-        <v>684.9061825519786</v>
+        <v>953.6440892486864</v>
       </c>
       <c r="E11" t="n">
-        <v>299.1179299537344</v>
+        <v>567.8558366504421</v>
       </c>
       <c r="F11" t="n">
-        <v>117.6204357321147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>117.6204357321147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>117.6204357321147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800308</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362816</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816077</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872904</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.47031392356</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230815</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.228484740838</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764995</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.250581723849</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400154</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400154</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>2562.339328400154</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2562.339328400154</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2562.339328400154</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2562.339328400154</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2188.873570139074</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>1798.734238163262</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966388</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155118</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542605</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>448.679247148805</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756899</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057901</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800308</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500112</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>507.2413987429764</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>801.9449557744479</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1165.206974733668</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.492103330613</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1884.562538506774</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2447.023413292609</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047138</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881661</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>367.9721493962183</v>
+        <v>624.6989751875257</v>
       </c>
       <c r="C13" t="n">
-        <v>367.9721493962183</v>
+        <v>455.7627922596188</v>
       </c>
       <c r="D13" t="n">
-        <v>367.9721493962183</v>
+        <v>455.7627922596188</v>
       </c>
       <c r="E13" t="n">
-        <v>367.9721493962183</v>
+        <v>307.8496986772257</v>
       </c>
       <c r="F13" t="n">
-        <v>367.9721493962183</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
-        <v>199.9856847044969</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>51.24678656800308</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800308</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020474</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693231</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096583</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999034</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171023</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1620.799373780631</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1424.170625940493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.192145135228</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>912.0738076390658</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>657.3893194331789</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W13" t="n">
-        <v>367.9721493962183</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X13" t="n">
-        <v>367.9721493962183</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y13" t="n">
-        <v>367.9721493962183</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1380.342820051861</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C14" t="n">
-        <v>1011.38030311145</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D14" t="n">
-        <v>653.1146045046992</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E14" t="n">
-        <v>267.3263519064549</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>267.3263519064549</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>267.3263519064549</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800311</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816081</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872915</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923562</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926626</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>2437.640120926626</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2437.640120926626</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V14" t="n">
-        <v>2106.577233583055</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W14" t="n">
-        <v>1753.808578312941</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X14" t="n">
-        <v>1380.342820051861</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y14" t="n">
-        <v>1380.342820051861</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966389</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155119</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542605</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>448.679247148805</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>302.14468917569</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4432786182524</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057901</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>238.4273302370161</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>614.543024838023</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>909.2465818694948</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1272.508600828715</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1659.79372942566</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>1991.864164601822</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2239.046898434119</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047138</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087194</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881661</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.24678656800311</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C16" t="n">
-        <v>51.24678656800311</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D16" t="n">
-        <v>51.24678656800311</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="E16" t="n">
-        <v>51.24678656800311</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="F16" t="n">
-        <v>51.24678656800311</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312199</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020475</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693234</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096587</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1533.86271359008</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1337.233965749941</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1114.255484944676</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>825.137147448514</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>570.4526592426272</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>281.0354892056666</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>53.04593830764924</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.24678656800311</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1632.511388127729</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C17" t="n">
-        <v>1263.548871187317</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>905.2831725805665</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>519.4949199823222</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>108.5090151927147</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V17" t="n">
-        <v>2678.274518176916</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W17" t="n">
-        <v>2678.274518176916</v>
+        <v>3066.775630150325</v>
       </c>
       <c r="X17" t="n">
-        <v>2304.808759915837</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="Y17" t="n">
-        <v>2019.11122819185</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.5033994003252</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C19" t="n">
-        <v>385.5672164724183</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D19" t="n">
-        <v>235.4505770600826</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E19" t="n">
-        <v>235.4505770600826</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.910120335303</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>782.4929502983425</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>554.5033994003252</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>554.5033994003252</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1689.318139675982</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>790.659319924054</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>790.659319924054</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>379.6734151344464</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>379.6734151344464</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>82.08981474321365</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5788,16 +5788,16 @@
         <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2839.523069976995</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X20" t="n">
-        <v>2466.057311715915</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y20" t="n">
-        <v>2075.917979740103</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.0623554265553</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C22" t="n">
-        <v>152.0623554265553</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
         <v>66.51211643218343</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1615.697475415547</v>
+        <v>1720.382428707927</v>
       </c>
       <c r="U22" t="n">
-        <v>1326.59460854119</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="V22" t="n">
-        <v>1071.910120335303</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W22" t="n">
-        <v>782.4929502983425</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X22" t="n">
-        <v>554.5033994003252</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y22" t="n">
-        <v>333.710820256795</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796265</v>
+        <v>1736.589769957182</v>
       </c>
       <c r="C23" t="n">
-        <v>817.078520373555</v>
+        <v>1736.589769957182</v>
       </c>
       <c r="D23" t="n">
-        <v>817.078520373555</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E23" t="n">
-        <v>817.078520373555</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
         <v>406.0926155839475</v>
@@ -5989,10 +5989,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6004,7 +6004,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.97538618064</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943748</v>
+        <v>2123.189610021304</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>241.8928126690276</v>
+        <v>469.8823635670449</v>
       </c>
       <c r="C25" t="n">
-        <v>72.95662974112065</v>
+        <v>300.946180639138</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218343</v>
+        <v>300.946180639138</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218343</v>
+        <v>153.0330870567449</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>153.0330870567449</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218343</v>
@@ -6189,10 +6189,10 @@
         <v>872.3234075408147</v>
       </c>
       <c r="X25" t="n">
-        <v>644.3338566427974</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y25" t="n">
-        <v>423.5412774992673</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2065.110222835253</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C26" t="n">
-        <v>1696.147705894841</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1337.882007288091</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>952.0937546898465</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>541.107849900239</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>126.0353997452355</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>3215.315153136266</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>3215.315153136266</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X26" t="n">
-        <v>2841.849394875187</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y26" t="n">
-        <v>2451.710062899375</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>453.6220087565674</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>453.6220087565674</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>453.6220087565674</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E28" t="n">
-        <v>305.7089151741743</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>158.818967676264</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>158.818967676264</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1446.505797040963</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V28" t="n">
-        <v>1191.821308835076</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W28" t="n">
-        <v>902.4041387981149</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X28" t="n">
-        <v>674.4145879000976</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>453.6220087565674</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1238.038871968308</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C29" t="n">
-        <v>869.0763550278964</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D29" t="n">
-        <v>510.8106564211459</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
-        <v>125.0224038229017</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
@@ -6466,7 +6466,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6502,13 +6502,13 @@
         <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.243802269321</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.778044008242</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y29" t="n">
-        <v>1624.63871203243</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>385.564938772426</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>216.6287558445191</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
         <v>66.5121164321834</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1849.200058761417</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U31" t="n">
-        <v>1560.097191887061</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V31" t="n">
-        <v>1305.412703681174</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W31" t="n">
-        <v>1015.995533644213</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X31" t="n">
-        <v>788.0059827461959</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y31" t="n">
-        <v>567.2134036026657</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1734.047335491681</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C32" t="n">
-        <v>1365.08481855127</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1006.819119944519</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>621.030867346275</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>210.0449625566675</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X32" t="n">
-        <v>2510.786507531615</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y32" t="n">
-        <v>2120.647175555803</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.4520072430315</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>515.5158243151246</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>365.3991849027889</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>365.3991849027889</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>365.3991849027889</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>197.6963482775078</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6888,22 +6888,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1638.191681214136</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V34" t="n">
-        <v>1383.507193008249</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W34" t="n">
-        <v>1094.090022971289</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X34" t="n">
-        <v>866.1004720732712</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y34" t="n">
-        <v>866.1004720732712</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2005.586939522201</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>1337.882007288089</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>952.0937546898451</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>541.1078499002376</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
@@ -6946,7 +6946,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3155.791869823214</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V35" t="n">
-        <v>3155.791869823214</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W35" t="n">
-        <v>3155.791869823214</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X35" t="n">
-        <v>2782.326111562134</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y35" t="n">
-        <v>2392.186779586323</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2073.546454440588</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C37" t="n">
-        <v>2073.546454440588</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D37" t="n">
-        <v>2073.546454440588</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>1925.633360858195</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>1778.743413360285</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>1611.040576735004</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435997</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>2912.153322005523</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>2623.050455131167</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>2368.36596692528</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>2078.94879688832</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>2073.546454440588</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>2073.546454440588</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796252</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C38" t="n">
-        <v>552.8079389392135</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D38" t="n">
-        <v>406.0926155839475</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1927.294548088493</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>680.6375233676413</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2065.110222835252</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.14770589484</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1337.882007288089</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>952.0937546898451</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>541.1078499002376</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0353997452341</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136265</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136265</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="W41" t="n">
-        <v>3215.315153136265</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X41" t="n">
-        <v>2841.849394875185</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y41" t="n">
-        <v>2451.710062899373</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7505,10 +7505,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>628.7269654071697</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>628.7269654071697</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.191681214136</v>
+        <v>1259.157560278957</v>
       </c>
       <c r="W43" t="n">
-        <v>1638.191681214136</v>
+        <v>1259.157560278957</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>1031.16800938094</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>810.3754302374094</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1127.748203495405</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C44" t="n">
-        <v>758.7856865549936</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>400.5199879482431</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>400.5199879482431</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>400.5199879482431</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>400.5199879482431</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>102.9363875570103</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410104</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066533</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796419</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535339</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y44" t="n">
-        <v>1514.348043559527</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,46 +7733,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>691.6489789975192</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C46" t="n">
-        <v>607.0615673062264</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9449278938906</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E46" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214137</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.50719300825</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.090022971289</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>1094.090022971289</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y46" t="n">
-        <v>873.2974438277589</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
   </sheetData>
@@ -7984,22 +7984,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>206.1327326711805</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.5253970037008</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2743913378117</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>30.57912628126812</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>51.52256395596316</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8224,22 +8224,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>178.7586225842971</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>149.3268049083089</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>95.99119834235006</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>299.4516747346862</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>199.7516311504061</v>
+        <v>277.4922425530994</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>22.36271716134826</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906574</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>211.0329012241569</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154995</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>193.3273467878353</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.9377812015499</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22555,7 +22555,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>171.176544111237</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>142.4282032621916</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22646,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.71062515663451</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>49.63920985095403</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.81794185570209</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -22761,19 +22761,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>116.9740249497287</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>174.1053224122597</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>41.91540402214943</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>70.53999045278887</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>58.35886639452337</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>25.97417592167653</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>269.8632291593424</v>
       </c>
       <c r="E8" t="n">
-        <v>219.803848405976</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>134.816526465934</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>182.4085303613876</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>227.193526462308</v>
+        <v>321.4674883790888</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>72.52264985936765</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>86.06729358864695</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>87.09978287733807</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>91.76688810888271</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0043389868307</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.8034931298451</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>343.9942511320575</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>103.3973822493072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>144.1977802603393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.335964134056951</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>26.15500844500604</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>228.2019783486363</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>63.92073641378417</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>14.70595108940901</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>261.6278756199967</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>237.2190002586073</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>142.2354048423645</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>80.3700473407124</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>277.2566436803249</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>8.361756451292877</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>53.37123218268107</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>214.5414662356957</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>390.5277909978263</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>28.70124808867922</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>142.2354048423642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>207.0308060315719</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>354.0062494102679</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>268.8242079902142</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>14.88262538744962</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25128,16 +25128,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>95.3197322131852</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>235.6797139074002</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>82.87935969080479</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>3.556976973656532</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>220.3613363657831</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>209.4348714989696</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>186.6250485757114</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.5651321021746</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>235.6797139074003</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>249.2766965295536</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>49.90359146150459</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>83.0140681584636</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>5.516901359347308</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>144.6462063673774</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>83.50528352424797</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.19598621064669</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>782270.9104953742</v>
+        <v>787113.8080249227</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>782270.9104953742</v>
+        <v>784837.060101666</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>775766.3066718462</v>
+        <v>778744.9495127756</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775766.3066718461</v>
+        <v>857982.2431124127</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775766.3066718463</v>
+        <v>857982.2431124127</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857982.2431124129</v>
+        <v>857982.243112413</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857982.2431124129</v>
+        <v>857982.2431124127</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857982.2431124129</v>
+        <v>857982.2431124127</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857982.2431124129</v>
+        <v>857982.2431124127</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857982.2431124129</v>
+        <v>857982.2431124126</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857982.2431124129</v>
+        <v>857982.2431124127</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857982.243112413</v>
+        <v>857982.2431124127</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>292326.4653616187</v>
+        <v>293963.0566446842</v>
       </c>
       <c r="C2" t="n">
-        <v>292326.4653616187</v>
+        <v>300474.9546057422</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943086</v>
+        <v>307240.6166485274</v>
       </c>
       <c r="E2" t="n">
-        <v>305971.6304943084</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="F2" t="n">
-        <v>305971.6304943087</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="H2" t="n">
         <v>340997.0989709205</v>
@@ -26337,7 +26337,7 @@
         <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="K2" t="n">
         <v>340997.0989709205</v>
@@ -26349,13 +26349,13 @@
         <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>786555.9961629253</v>
+        <v>788872.8219169304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>142513.6350285919</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>162483.5179640541</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>175476.4059383951</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>173363.8810341907</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>45829.42896872333</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45920.21121431065</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.85697524304851e-10</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51955.28000414307</v>
+        <v>52711.7087881739</v>
       </c>
       <c r="C4" t="n">
-        <v>51955.28000414306</v>
+        <v>34164.65115400241</v>
       </c>
       <c r="D4" t="n">
-        <v>11359.04569987401</v>
+        <v>11168.8013409764</v>
       </c>
       <c r="E4" t="n">
-        <v>11359.04569987402</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="F4" t="n">
-        <v>11359.04569987402</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="G4" t="n">
         <v>6110.739312017629</v>
@@ -26438,7 +26438,7 @@
         <v>6110.739312017629</v>
       </c>
       <c r="I4" t="n">
-        <v>6110.739312017629</v>
+        <v>6110.73931201763</v>
       </c>
       <c r="J4" t="n">
         <v>6110.739312017629</v>
@@ -26459,7 +26459,7 @@
         <v>6110.739312017629</v>
       </c>
       <c r="P4" t="n">
-        <v>6110.73931201763</v>
+        <v>6110.739312017629</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85512.93677905216</v>
+        <v>85933.26903271281</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984468</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984471</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26493,25 +26493,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139333</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-631697.7475845017</v>
+        <v>-639382.6345075057</v>
       </c>
       <c r="C6" t="n">
-        <v>154858.2485784235</v>
+        <v>28949.29700983708</v>
       </c>
       <c r="D6" t="n">
-        <v>-90010.19716843676</v>
+        <v>34943.19456780659</v>
       </c>
       <c r="E6" t="n">
-        <v>235302.4123545902</v>
+        <v>81627.42386105357</v>
       </c>
       <c r="F6" t="n">
-        <v>235302.4123545897</v>
+        <v>257103.8297994486</v>
       </c>
       <c r="G6" t="n">
-        <v>87216.13806331898</v>
+        <v>257103.8297994486</v>
       </c>
       <c r="H6" t="n">
-        <v>260580.0190975096</v>
+        <v>257103.8297994485</v>
       </c>
       <c r="I6" t="n">
-        <v>260580.0190975096</v>
+        <v>257103.8297994486</v>
       </c>
       <c r="J6" t="n">
-        <v>92974.84128752715</v>
+        <v>87689.81297340064</v>
       </c>
       <c r="K6" t="n">
-        <v>260580.0190975096</v>
+        <v>257103.8297994485</v>
       </c>
       <c r="L6" t="n">
-        <v>260580.0190975097</v>
+        <v>257103.8297994487</v>
       </c>
       <c r="M6" t="n">
-        <v>260580.0190975096</v>
+        <v>211274.4008307252</v>
       </c>
       <c r="N6" t="n">
-        <v>260580.0190975095</v>
+        <v>257103.8297994487</v>
       </c>
       <c r="O6" t="n">
-        <v>214659.807883199</v>
+        <v>257103.8297994489</v>
       </c>
       <c r="P6" t="n">
-        <v>260580.0190975094</v>
+        <v>257103.8297994483</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>593.4761003380651</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498449</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175388</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175392</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000385</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000389</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="M4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26962,46 +26962,46 @@
         <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>156.5048561595427</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>189.7254341522372</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150.0703099434534</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>155.7118084757591</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>183.903263867046</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>183.903263867046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>183.903263867046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38583356919825</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055158</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651562</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J5" t="n">
-        <v>202.4946418937401</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779021</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712531</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074825</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N5" t="n">
-        <v>425.710248335967</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822519</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426701</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457577</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810517</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916534</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840366</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182841</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847383</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070429</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1701353512822</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842454</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900653</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947077</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671574</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607457</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080804</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784626</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888314</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207016</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784131</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490379</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3381075790241</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889954</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676927</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N7" t="n">
-        <v>163.7702163441091</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714137</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P7" t="n">
-        <v>129.436164572092</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104783</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937817</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S7" t="n">
-        <v>18.65071613685361</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522795</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265706</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.68851486730742</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182605</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793979</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853283</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027923</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839336</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712727</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062754</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.3018354237521</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>86.08466081179235</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837064</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612564</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255622</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041654</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>525.6948043315581</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274807</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157839</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.06611229599261</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979553</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561278</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>76.19324275662511</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843065</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09243013678523075</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.755034742181058</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336176</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>144.7659768979354</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>318.7038799491898</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857141</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767378</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730001</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342221</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166591</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190642</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147049</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235311</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745093</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.43766458389759</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.009120711347159</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.4038763438002</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436492</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>189.817847557584</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4289352178437</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177241</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040585</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762069</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405672</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378623</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.462496416876</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>124.741722762414</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>37.318536019979</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000169</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.684379313654578</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.97566335231071</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335768</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>195.6942511682318</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>250.4212663227906</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849626</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067958</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154671</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7180217169136</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759582</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523477</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069558</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.755034742181059</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979354</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>318.70387994919</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857143</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>592.572645076738</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730004</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342224</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166595</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190645</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147052</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745098</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436494</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177244</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040588</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762072</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405675</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378625</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997902</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000172</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335771</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759585</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069562</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34704,22 +34704,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012659</v>
+        <v>346.8687486724463</v>
       </c>
       <c r="M2" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
-        <v>387.3782507911014</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2425016880001</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502633</v>
+        <v>212.6461121062264</v>
       </c>
       <c r="P3" t="n">
         <v>428.2502711927643</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>487.5747176873202</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M5" t="n">
-        <v>367.3438880645069</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>351.6544082306338</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M6" t="n">
-        <v>277.3016391045771</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>473.5213322636847</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531412</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493115</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295333</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233377</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854534</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369855</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.452847899353443</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915742</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>360.3852081153411</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755196</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873427</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510059</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961994</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>64.12666919171363</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>566.6829634324466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>394.3530922482248</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>338.3117987025569</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>274.3594119744987</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>328.1069739656115</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>26.44568217978366</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266584</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912599</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597959</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701675</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>55.7336217364322</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225035</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407335</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067505</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376312</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949724</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7456939637946</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402555</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939893</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091734</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>397.6203974676416</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>297.68036063785</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820402</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>391.1970995928737</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961228</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>568.1422977634693</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308545</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870588</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>173.424759342349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>278.0112915831068</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>303.6179906468032</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860244</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>262.6644876295068</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>200.9965809818071</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805397</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407337</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067508</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457277</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376315</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949727</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>308.745693963795</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939904</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313263</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>379.9148430313201</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378502</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820405</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>391.1970995928739</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>335.424681996123</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235323</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>326.5580100667037</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>278.0112915831069</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>262.6644876295069</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805403</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
